--- a/data/passenger_time_value.xlsx
+++ b/data/passenger_time_value.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E636D-92D2-4BAE-A2DF-F408E356912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B7A0E-E00A-4015-B414-BCEA82464433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="additional" sheetId="2" r:id="rId2"/>
+    <sheet name="eu25" sheetId="1" r:id="rId1"/>
+    <sheet name="france" sheetId="3" r:id="rId2"/>
+    <sheet name="uk" sheetId="4" r:id="rId3"/>
+    <sheet name="additional" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>purpose</t>
   </si>
@@ -73,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +453,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>20.47</v>
       </c>
     </row>
@@ -455,64 +461,8 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>49.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>59.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>60.7</v>
       </c>
     </row>
   </sheetData>
@@ -522,11 +472,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D5E3A9-B6FA-47A2-88F8-447E945731C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F13A7A-D1B3-43A5-AD3E-A2ABD5EC5CAE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>62.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E2E005-B0B9-421A-A90E-43C8C1B83A3B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,9 +549,56 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>61.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D5E3A9-B6FA-47A2-88F8-447E945731C7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>53</v>
       </c>
     </row>
@@ -575,15 +630,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7de07ceb4021a46e644f2475dce3c08e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a575a7fa9043b0502b32047f1ff6be7" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -806,6 +852,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0278CDF3-8D6A-4741-AAC3-7F274BAD8D3A}">
   <ds:schemaRefs>
@@ -824,14 +879,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B466B4-5228-4334-BB64-239481FCA41D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -848,4 +895,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/passenger_time_value.xlsx
+++ b/data/passenger_time_value.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E636D-92D2-4BAE-A2DF-F408E356912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B27F4-D8ED-44E5-B79D-18F5EB545DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="additional" sheetId="2" r:id="rId2"/>
+    <sheet name="eu25" sheetId="3" r:id="rId1"/>
+    <sheet name="france" sheetId="4" r:id="rId2"/>
+    <sheet name="uk" sheetId="5" r:id="rId3"/>
+    <sheet name="additional" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>purpose</t>
   </si>
@@ -73,16 +75,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,11 +419,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA6D562-BED2-4BFE-AB18-9AC65D9A6805}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>49.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4285F0A8-8C29-4C4B-8D80-3E08C520A279}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,83 +483,89 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>20.47</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>49.98</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>59.8</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
         <v>62.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>60.7</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35C25D-7497-4F21-857E-97CB01C73992}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>60.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D5E3A9-B6FA-47A2-88F8-447E945731C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -575,15 +619,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7de07ceb4021a46e644f2475dce3c08e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a575a7fa9043b0502b32047f1ff6be7" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -806,6 +841,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0278CDF3-8D6A-4741-AAC3-7F274BAD8D3A}">
   <ds:schemaRefs>
@@ -824,14 +868,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B466B4-5228-4334-BB64-239481FCA41D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -848,4 +884,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/passenger_time_value.xlsx
+++ b/data/passenger_time_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B27F4-D8ED-44E5-B79D-18F5EB545DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87AB446-3C1D-40CE-B3F1-0E101E5C36EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eu25" sheetId="3" r:id="rId1"/>
@@ -124,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA6D562-BED2-4BFE-AB18-9AC65D9A6805}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D5E3A9-B6FA-47A2-88F8-447E945731C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>92.8</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>69.2</v>
+        <v>61.6</v>
       </c>
     </row>
   </sheetData>
@@ -613,9 +613,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,27 +845,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0278CDF3-8D6A-4741-AAC3-7F274BAD8D3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -887,9 +878,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0278CDF3-8D6A-4741-AAC3-7F274BAD8D3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/passenger_time_value.xlsx
+++ b/data/passenger_time_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87AB446-3C1D-40CE-B3F1-0E101E5C36EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADF6EF-7EA3-42A7-A850-22AB48FF5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eu25" sheetId="3" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA6D562-BED2-4BFE-AB18-9AC65D9A6805}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>20.47</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>49.98</v>
+        <v>54.56</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +465,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>59.8</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>61.2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>83.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>62.1</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>63.8</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>60.7</v>
+        <v>72.900000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>82.7</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>61.6</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -613,12 +613,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,15 +842,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0278CDF3-8D6A-4741-AAC3-7F274BAD8D3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -878,18 +887,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0278CDF3-8D6A-4741-AAC3-7F274BAD8D3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A5CA49-98BE-41B8-A8DB-86FD21BF1081}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>